--- a/featureTesting.xlsx
+++ b/featureTesting.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t xml:space="preserve">k</t>
   </si>
@@ -127,7 +127,19 @@
     <t xml:space="preserve">False positive rate</t>
   </si>
   <si>
+    <t xml:space="preserve">A2:K3</t>
+  </si>
+  <si>
     <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,12 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,10 +239,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,6 +259,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -274,20 +280,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M65536"/>
+  <dimension ref="A1:P65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N54" activeCellId="0" sqref="N54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N80" activeCellId="0" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,34 +337,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1041.42629613877</v>
+        <v>983.96906702149</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1112.14450141492</v>
+        <v>972.701435311633</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>9666</v>
+        <v>9723</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9992</v>
+        <v>10008</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>9647</v>
+        <v>9713</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>11</v>
@@ -369,76 +375,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1110.97176290455</v>
+        <v>971.710181776573</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1052.25454340813</v>
+        <v>988.494226540458</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>9692</v>
+        <v>9722</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>9982</v>
+        <v>9998</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>9669</v>
+        <v>9704</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <f aca="false">AVERAGE(B2:B3)</f>
-        <v>1076.19902952166</v>
+        <v>977.839624399032</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">AVERAGE(C2:C3)</f>
-        <v>1082.19952241153</v>
+        <v>980.597830926046</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">AVERAGE(D2:D3)</f>
-        <v>360</v>
+        <v>316.5</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">AVERAGE(E2:E3)</f>
-        <v>9679</v>
+        <v>9722.5</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">AVERAGE(F2:F3)</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">AVERAGE(G2:G3)</f>
-        <v>9987</v>
+        <v>10003</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">AVERAGE(H2:H3)</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">AVERAGE(I2:I3)</f>
-        <v>9658</v>
+        <v>9708.5</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">AVERAGE(J2:J3)</f>
-        <v>329</v>
+        <v>294.5</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">AVERAGE(K2:K3)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,34 +452,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1068.36930156227</v>
+        <v>905.291652587278</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1094.52678256492</v>
+        <v>1065.71511618186</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>9678</v>
+        <v>9704</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>9986</v>
+        <v>10003</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>9655</v>
+        <v>9687</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>12</v>
@@ -484,31 +490,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1093.93156383312</v>
+        <v>1060.78823498566</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1071.82310981815</v>
+        <v>924.900823322526</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>9680</v>
+        <v>9741</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>10007</v>
+        <v>10009</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>9669</v>
+        <v>9730</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>11</v>
@@ -517,43 +523,43 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <f aca="false">AVERAGE(B5:B6)</f>
-        <v>1081.15043269769</v>
+        <v>983.039943786472</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">AVERAGE(C5:C6)</f>
-        <v>1083.17494619153</v>
+        <v>995.307969752195</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">AVERAGE(D5:D6)</f>
-        <v>360</v>
+        <v>316.5</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">AVERAGE(E5:E6)</f>
-        <v>9679</v>
+        <v>9722.5</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">AVERAGE(F5:F6)</f>
-        <v>42.5</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">AVERAGE(G5:G6)</f>
-        <v>9996.5</v>
+        <v>10006</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">AVERAGE(H5:H6)</f>
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">AVERAGE(I5:I6)</f>
-        <v>9662</v>
+        <v>9708.5</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">AVERAGE(J5:J6)</f>
-        <v>334.5</v>
+        <v>297.5</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">AVERAGE(K5:K6)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,34 +567,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1026.97134537425</v>
+        <v>1031.22567260149</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1146.00011589821</v>
+        <v>956.927101592907</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9666</v>
+        <v>9738</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>10008</v>
+        <v>10015</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>9653</v>
+        <v>9729</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>13</v>
@@ -599,76 +605,76 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1151.28763904802</v>
+        <v>953.603845403168</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1041.68256840823</v>
+        <v>1039.05612397655</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>9707</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10010</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>9692</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>10008</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>9677</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <f aca="false">AVERAGE(B8:B9)</f>
-        <v>1089.12949221114</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>992.414759002331</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <f aca="false">AVERAGE(C8:C9)</f>
-        <v>1093.84134215322</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>997.991612784727</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <f aca="false">AVERAGE(D8:D9)</f>
-        <v>360</v>
-      </c>
-      <c r="E10" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">AVERAGE(E8:E9)</f>
-        <v>9679</v>
-      </c>
-      <c r="F10" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <f aca="false">AVERAGE(F8:F9)</f>
-        <v>31</v>
-      </c>
-      <c r="G10" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <f aca="false">AVERAGE(G8:G9)</f>
-        <v>10008</v>
-      </c>
-      <c r="H10" s="2" t="n">
+        <v>10012.5</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <f aca="false">AVERAGE(H8:H9)</f>
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <f aca="false">AVERAGE(I8:I9)</f>
-        <v>9665</v>
-      </c>
-      <c r="J10" s="2" t="n">
+        <v>9710.5</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <f aca="false">AVERAGE(J8:J9)</f>
-        <v>343</v>
-      </c>
-      <c r="K10" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <f aca="false">AVERAGE(K8:K9)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,16 +682,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1074.79092423057</v>
+        <v>964.918323377349</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1080.92072151248</v>
+        <v>997.806475247003</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9680</v>
+        <v>9732</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>53</v>
@@ -694,16 +700,16 @@
         <v>9986</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>9662</v>
+        <v>9707</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>14</v>
@@ -714,76 +720,76 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1080.63503494986</v>
+        <v>998.185436749405</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1075.65785203775</v>
+        <v>983.460234260579</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>9678</v>
+        <v>9713</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>9981</v>
+        <v>10007</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>9654</v>
+        <v>9702</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">AVERAGE(B11:B12)</f>
-        <v>1077.71297959022</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>981.551880063377</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <f aca="false">AVERAGE(C11:C12)</f>
-        <v>1078.28928677512</v>
-      </c>
-      <c r="D13" s="2" t="n">
+        <v>990.633354753791</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <f aca="false">AVERAGE(D11:D12)</f>
-        <v>360</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <f aca="false">AVERAGE(E11:E12)</f>
-        <v>9679</v>
-      </c>
-      <c r="F13" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <f aca="false">AVERAGE(F11:F12)</f>
-        <v>55.5</v>
-      </c>
-      <c r="G13" s="2" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <f aca="false">AVERAGE(G11:G12)</f>
-        <v>9983.5</v>
-      </c>
-      <c r="H13" s="2" t="n">
+        <v>9996.5</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <f aca="false">AVERAGE(H11:H12)</f>
-        <v>34.5</v>
-      </c>
-      <c r="I13" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <f aca="false">AVERAGE(I11:I12)</f>
-        <v>9658</v>
-      </c>
-      <c r="J13" s="2" t="n">
+        <v>9704.5</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <f aca="false">AVERAGE(J11:J12)</f>
-        <v>325.5</v>
-      </c>
-      <c r="K13" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <f aca="false">AVERAGE(K11:K12)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,31 +797,31 @@
         <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1125.65193501666</v>
+        <v>969.175875024876</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1083.17246362575</v>
+        <v>1034.89385709927</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9673</v>
+        <v>9709</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>10008</v>
+        <v>10013</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>9660</v>
+        <v>9696</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>13</v>
@@ -829,76 +835,76 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1057.64495581534</v>
+        <v>1021.9564402356</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1119.15469688724</v>
+        <v>970.662648314461</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>9685</v>
+        <v>9736</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>10008</v>
+        <v>10014</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>9671</v>
+        <v>9727</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="1" t="n">
         <f aca="false">AVERAGE(B14:B15)</f>
-        <v>1091.648445416</v>
-      </c>
-      <c r="C16" s="2" t="n">
+        <v>995.566157630239</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <f aca="false">AVERAGE(C14:C15)</f>
-        <v>1101.1635802565</v>
-      </c>
-      <c r="D16" s="2" t="n">
+        <v>1002.77825270686</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <f aca="false">AVERAGE(D14:D15)</f>
-        <v>360</v>
-      </c>
-      <c r="E16" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <f aca="false">AVERAGE(E14:E15)</f>
-        <v>9679</v>
-      </c>
-      <c r="F16" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <f aca="false">AVERAGE(F14:F15)</f>
-        <v>31</v>
-      </c>
-      <c r="G16" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <f aca="false">AVERAGE(G14:G15)</f>
-        <v>10008</v>
-      </c>
-      <c r="H16" s="2" t="n">
+        <v>10013.5</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <f aca="false">AVERAGE(H14:H15)</f>
-        <v>17.5</v>
-      </c>
-      <c r="I16" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <f aca="false">AVERAGE(I14:I15)</f>
-        <v>9665.5</v>
-      </c>
-      <c r="J16" s="2" t="n">
+        <v>9711.5</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <f aca="false">AVERAGE(J14:J15)</f>
-        <v>342.5</v>
-      </c>
-      <c r="K16" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <f aca="false">AVERAGE(K14:K15)</f>
-        <v>13.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,34 +912,34 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1085.25462577935</v>
+        <v>978.788546856426</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1055.39483651151</v>
+        <v>975.470071054455</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>9689</v>
+        <v>9728</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>9974</v>
+        <v>10004</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>9664</v>
+        <v>9714</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>16</v>
@@ -944,76 +950,76 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1052.04282423414</v>
+        <v>969.027831692371</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1092.53962292991</v>
+        <v>982.918945704032</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>9669</v>
+        <v>9717</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>9995</v>
+        <v>9999</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>9651</v>
+        <v>9699</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="1" t="n">
         <f aca="false">AVERAGE(B17:B18)</f>
-        <v>1068.64872500674</v>
-      </c>
-      <c r="C19" s="2" t="n">
+        <v>973.908189274399</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <f aca="false">AVERAGE(C17:C18)</f>
-        <v>1073.96722972071</v>
-      </c>
-      <c r="D19" s="2" t="n">
+        <v>979.194508379244</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <f aca="false">AVERAGE(D17:D18)</f>
-        <v>360</v>
-      </c>
-      <c r="E19" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <f aca="false">AVERAGE(E17:E18)</f>
-        <v>9679</v>
-      </c>
-      <c r="F19" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <f aca="false">AVERAGE(F17:F18)</f>
-        <v>54.5</v>
-      </c>
-      <c r="G19" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <f aca="false">AVERAGE(G17:G18)</f>
-        <v>9984.5</v>
-      </c>
-      <c r="H19" s="2" t="n">
+        <v>10001.5</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <f aca="false">AVERAGE(H17:H18)</f>
-        <v>33</v>
-      </c>
-      <c r="I19" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <f aca="false">AVERAGE(I17:I18)</f>
-        <v>9657.5</v>
-      </c>
-      <c r="J19" s="2" t="n">
+        <v>9706.5</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <f aca="false">AVERAGE(J17:J18)</f>
-        <v>327</v>
-      </c>
-      <c r="K19" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <f aca="false">AVERAGE(K17:K18)</f>
-        <v>21.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,34 +1027,34 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1540.49685552088</v>
+        <v>1318.84056804365</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1340.37675175239</v>
+        <v>1285.8867334872</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>9720</v>
+        <v>9723</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>10006</v>
+        <v>10017</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>9697</v>
+        <v>9711</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>17</v>
@@ -1059,76 +1065,76 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1318.7267842644</v>
+        <v>1282.1884440806</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1552.14062228566</v>
+        <v>1318.64258513374</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>9638</v>
+        <v>9722</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>10016</v>
+        <v>10013</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>9627</v>
+        <v>9704</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="1" t="n">
         <f aca="false">AVERAGE(B20:B21)</f>
-        <v>1429.61181989264</v>
-      </c>
-      <c r="C22" s="2" t="n">
+        <v>1300.51450606212</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <f aca="false">AVERAGE(C20:C21)</f>
-        <v>1446.25868701903</v>
-      </c>
-      <c r="D22" s="2" t="n">
+        <v>1302.26465931047</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <f aca="false">AVERAGE(D20:D21)</f>
-        <v>360</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false">AVERAGE(E20:E21)</f>
-        <v>9679</v>
-      </c>
-      <c r="F22" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <f aca="false">AVERAGE(F20:F21)</f>
-        <v>28</v>
-      </c>
-      <c r="G22" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <f aca="false">AVERAGE(G20:G21)</f>
-        <v>10011</v>
-      </c>
-      <c r="H22" s="2" t="n">
+        <v>10015</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <f aca="false">AVERAGE(H20:H21)</f>
-        <v>11</v>
-      </c>
-      <c r="I22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <f aca="false">AVERAGE(I20:I21)</f>
-        <v>9662</v>
-      </c>
-      <c r="J22" s="2" t="n">
+        <v>9707.5</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <f aca="false">AVERAGE(J20:J21)</f>
-        <v>349</v>
-      </c>
-      <c r="K22" s="2" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K22" s="1" t="n">
         <f aca="false">AVERAGE(K20:K21)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,16 +1142,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1159.94626966091</v>
+        <v>1019.21321401089</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1083.25920547254</v>
+        <v>1027.33958825309</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9693</v>
+        <v>9712</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -1157,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>9693</v>
+        <v>9712</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>0</v>
@@ -1174,16 +1180,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1075.30361798093</v>
+        <v>1012.89781171662</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1159.47587458774</v>
+        <v>1015.19209066881</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>9665</v>
+        <v>9733</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -1195,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>9665</v>
+        <v>9733</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>0</v>
@@ -1207,19 +1213,19 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
         <f aca="false">AVERAGE(B23:B24)</f>
-        <v>1117.62494382092</v>
+        <v>1016.05551286375</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">AVERAGE(C23:C24)</f>
-        <v>1121.36754003014</v>
+        <v>1021.26583946095</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">AVERAGE(D23:D24)</f>
-        <v>360</v>
+        <v>316.5</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">AVERAGE(E23:E24)</f>
-        <v>9679</v>
+        <v>9722.5</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">AVERAGE(F23:F24)</f>
@@ -1235,11 +1241,11 @@
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">AVERAGE(I23:I24)</f>
-        <v>9679</v>
+        <v>9722.5</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">AVERAGE(J23:J24)</f>
-        <v>360</v>
+        <v>316.5</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="false">AVERAGE(K23:K24)</f>
@@ -1251,16 +1257,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1575.46191145442</v>
+        <v>1454.6106696669</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1530.34623796265</v>
+        <v>1361.36556362091</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>9686</v>
+        <v>9737</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
@@ -1272,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>9686</v>
+        <v>9737</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>0</v>
@@ -1289,16 +1295,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1528.18222355419</v>
+        <v>1356.6343369671</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1575.10610419569</v>
+        <v>1455.30853340331</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>9672</v>
+        <v>9708</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
@@ -1310,53 +1316,53 @@
         <v>0</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>9672</v>
+        <v>9708</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="1" t="n">
         <f aca="false">AVERAGE(B26:B27)</f>
-        <v>1551.82206750431</v>
-      </c>
-      <c r="C28" s="2" t="n">
+        <v>1405.622503317</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <f aca="false">AVERAGE(C26:C27)</f>
-        <v>1552.72617107917</v>
-      </c>
-      <c r="D28" s="2" t="n">
+        <v>1408.33704851211</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <f aca="false">AVERAGE(D26:D27)</f>
-        <v>360</v>
-      </c>
-      <c r="E28" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <f aca="false">AVERAGE(E26:E27)</f>
-        <v>9679</v>
-      </c>
-      <c r="F28" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <f aca="false">AVERAGE(F26:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="1" t="n">
         <f aca="false">AVERAGE(G26:G27)</f>
         <v>10039</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="1" t="n">
         <f aca="false">AVERAGE(H26:H27)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <f aca="false">AVERAGE(I26:I27)</f>
-        <v>9679</v>
-      </c>
-      <c r="J28" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <f aca="false">AVERAGE(J26:J27)</f>
-        <v>360</v>
-      </c>
-      <c r="K28" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="K28" s="1" t="n">
         <f aca="false">AVERAGE(K26:K27)</f>
         <v>0</v>
       </c>
@@ -1366,34 +1372,34 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1116.93640088515</v>
+        <v>1008.85126097471</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1046.13337469755</v>
+        <v>955.210306993564</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>9676</v>
+        <v>9742</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>9999</v>
+        <v>9994</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>9666</v>
+        <v>9724</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>20</v>
@@ -1404,248 +1410,248 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1028.53230601552</v>
+        <v>948.240152789399</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1113.42129137943</v>
+        <v>1018.84068824505</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>9683</v>
+        <v>9703</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>9975</v>
+        <v>10006</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>9651</v>
+        <v>9692</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="1" t="n">
         <f aca="false">AVERAGE(B29:B30)</f>
-        <v>1072.73435345034</v>
-      </c>
-      <c r="C31" s="2" t="n">
+        <v>978.545706882056</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <f aca="false">AVERAGE(C29:C30)</f>
-        <v>1079.77733303849</v>
-      </c>
-      <c r="D31" s="2" t="n">
+        <v>987.025497619305</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <f aca="false">AVERAGE(D29:D30)</f>
-        <v>359.5</v>
-      </c>
-      <c r="E31" s="2" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <f aca="false">AVERAGE(E29:E30)</f>
-        <v>9679.5</v>
-      </c>
-      <c r="F31" s="2" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <f aca="false">AVERAGE(F29:F30)</f>
-        <v>52</v>
-      </c>
-      <c r="G31" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <f aca="false">AVERAGE(G29:G30)</f>
-        <v>9987</v>
-      </c>
-      <c r="H31" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <f aca="false">AVERAGE(H29:H30)</f>
-        <v>31</v>
-      </c>
-      <c r="I31" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I31" s="1" t="n">
         <f aca="false">AVERAGE(I29:I30)</f>
-        <v>9658.5</v>
-      </c>
-      <c r="J31" s="2" t="n">
+        <v>9708</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <f aca="false">AVERAGE(J29:J30)</f>
-        <v>328.5</v>
-      </c>
-      <c r="K31" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="K31" s="1" t="n">
         <f aca="false">AVERAGE(K29:K30)</f>
-        <v>21</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
       <c r="L39" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
       <c r="L40" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="L41" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="L42" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
       <c r="L43" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
       <c r="L44" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
       <c r="L45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
       <c r="L46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="L47" s="0" t="s">
         <v>19</v>
       </c>
@@ -1654,12 +1660,12 @@
       <c r="A48" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="L48" s="0" t="s">
         <v>20</v>
       </c>
@@ -1685,19 +1691,19 @@
       <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1705,17 +1711,17 @@
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="6" t="n">
         <v>1076.19902952166</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="6" t="n">
         <v>1082.19952241153</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>9658</v>
+      <c r="E52" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>329</v>
@@ -1723,35 +1729,35 @@
       <c r="G52" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H52" s="6" t="n">
+      <c r="H52" s="5" t="e">
         <f aca="false">(D52+E52)/SUM(D52:G52)*100</f>
-        <v>96.51359697181</v>
-      </c>
-      <c r="I52" s="6" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="5" t="n">
         <f aca="false">D52/(D52+G52)*100</f>
         <v>59.6153846153846</v>
       </c>
-      <c r="J52" s="6" t="n">
+      <c r="J52" s="5" t="n">
         <f aca="false">D52/(D52+F52)*100</f>
         <v>8.61111111111111</v>
       </c>
-      <c r="K52" s="6" t="n">
+      <c r="K52" s="5" t="e">
         <f aca="false">E52/(E52+G52)*100</f>
-        <v>99.7830354375452</v>
-      </c>
-      <c r="L52" s="6" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" s="5" t="e">
         <f aca="false">G52/(G52+E52)*100</f>
-        <v>0.216964562454799</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="6" t="n">
         <v>1081.15043269769</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="6" t="n">
         <v>1083.17494619153</v>
       </c>
       <c r="D53" s="0" t="n">
@@ -1766,23 +1772,23 @@
       <c r="G53" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H53" s="6" t="n">
+      <c r="H53" s="5" t="n">
         <f aca="false">(D53+E53)/SUM(D53:G53)*100</f>
         <v>96.4986552445463</v>
       </c>
-      <c r="I53" s="6" t="n">
+      <c r="I53" s="5" t="n">
         <f aca="false">D53/(D53+G53)*100</f>
         <v>60</v>
       </c>
-      <c r="J53" s="6" t="n">
+      <c r="J53" s="5" t="n">
         <f aca="false">D53/(D53+F53)*100</f>
         <v>7.08333333333333</v>
       </c>
-      <c r="K53" s="6" t="n">
+      <c r="K53" s="5" t="n">
         <f aca="false">E53/(E53+G53)*100</f>
         <v>99.8243620208699</v>
       </c>
-      <c r="L53" s="6" t="n">
+      <c r="L53" s="5" t="n">
         <f aca="false">G53/(G53+E53)*100</f>
         <v>0.175637979130075</v>
       </c>
@@ -1791,10 +1797,10 @@
       <c r="A54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="6" t="n">
         <v>1089.12949221114</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="6" t="n">
         <v>1093.84134215322</v>
       </c>
       <c r="D54" s="0" t="n">
@@ -1809,23 +1815,23 @@
       <c r="G54" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H54" s="6" t="n">
+      <c r="H54" s="5" t="n">
         <f aca="false">(D54+E54)/SUM(D54:G54)*100</f>
         <v>96.4438689112462</v>
       </c>
-      <c r="I54" s="6" t="n">
+      <c r="I54" s="5" t="n">
         <f aca="false">D54/(D54+G54)*100</f>
         <v>54.8387096774194</v>
       </c>
-      <c r="J54" s="6" t="n">
+      <c r="J54" s="5" t="n">
         <f aca="false">D54/(D54+F54)*100</f>
         <v>4.72222222222222</v>
       </c>
-      <c r="K54" s="6" t="n">
+      <c r="K54" s="5" t="n">
         <f aca="false">E54/(E54+G54)*100</f>
         <v>99.8553569583635</v>
       </c>
-      <c r="L54" s="6" t="n">
+      <c r="L54" s="5" t="n">
         <f aca="false">G54/(G54+E54)*100</f>
         <v>0.144643041636533</v>
       </c>
@@ -1834,10 +1840,10 @@
       <c r="A55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="6" t="n">
         <v>1077.71297959022</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="6" t="n">
         <v>1078.28928677512</v>
       </c>
       <c r="D55" s="0" t="n">
@@ -1852,23 +1858,23 @@
       <c r="G55" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H55" s="6" t="n">
+      <c r="H55" s="5" t="n">
         <f aca="false">(D55+E55)/SUM(D55:G55)*100</f>
         <v>96.5484610020918</v>
       </c>
-      <c r="I55" s="6" t="n">
+      <c r="I55" s="5" t="n">
         <f aca="false">D55/(D55+G55)*100</f>
         <v>62.1621621621622</v>
       </c>
-      <c r="J55" s="6" t="n">
+      <c r="J55" s="5" t="n">
         <f aca="false">D55/(D55+F55)*100</f>
         <v>9.58333333333333</v>
       </c>
-      <c r="K55" s="6" t="n">
+      <c r="K55" s="5" t="n">
         <f aca="false">E55/(E55+G55)*100</f>
         <v>99.7830354375452</v>
       </c>
-      <c r="L55" s="6" t="n">
+      <c r="L55" s="5" t="n">
         <f aca="false">G55/(G55+E55)*100</f>
         <v>0.216964562454799</v>
       </c>
@@ -1877,10 +1883,10 @@
       <c r="A56" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="6" t="n">
         <v>1091.648445416</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="6" t="n">
         <v>1101.1635802565</v>
       </c>
       <c r="D56" s="0" t="n">
@@ -1895,23 +1901,23 @@
       <c r="G56" s="0" t="n">
         <v>13.5</v>
       </c>
-      <c r="H56" s="6" t="n">
+      <c r="H56" s="5" t="n">
         <f aca="false">(D56+E56)/SUM(D56:G56)*100</f>
         <v>96.4538300627553</v>
       </c>
-      <c r="I56" s="6" t="n">
+      <c r="I56" s="5" t="n">
         <f aca="false">D56/(D56+G56)*100</f>
         <v>56.4516129032258</v>
       </c>
-      <c r="J56" s="6" t="n">
+      <c r="J56" s="5" t="n">
         <f aca="false">D56/(D56+F56)*100</f>
         <v>4.86111111111111</v>
       </c>
-      <c r="K56" s="6" t="n">
+      <c r="K56" s="5" t="n">
         <f aca="false">E56/(E56+G56)*100</f>
         <v>99.8605227812791</v>
       </c>
-      <c r="L56" s="6" t="n">
+      <c r="L56" s="5" t="n">
         <f aca="false">G56/(G56+E56)*100</f>
         <v>0.139477218720942</v>
       </c>
@@ -1920,10 +1926,10 @@
       <c r="A57" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="6" t="n">
         <v>1068.64872500674</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="6" t="n">
         <v>1073.96722972071</v>
       </c>
       <c r="D57" s="0" t="n">
@@ -1938,23 +1944,23 @@
       <c r="G57" s="0" t="n">
         <v>21.5</v>
       </c>
-      <c r="H57" s="6" t="n">
+      <c r="H57" s="5" t="n">
         <f aca="false">(D57+E57)/SUM(D57:G57)*100</f>
         <v>96.5285386990736</v>
       </c>
-      <c r="I57" s="6" t="n">
+      <c r="I57" s="5" t="n">
         <f aca="false">D57/(D57+G57)*100</f>
         <v>60.5504587155963</v>
       </c>
-      <c r="J57" s="6" t="n">
+      <c r="J57" s="5" t="n">
         <f aca="false">D57/(D57+F57)*100</f>
         <v>9.16666666666667</v>
       </c>
-      <c r="K57" s="6" t="n">
+      <c r="K57" s="5" t="n">
         <f aca="false">E57/(E57+G57)*100</f>
         <v>99.7778696146296</v>
       </c>
-      <c r="L57" s="6" t="n">
+      <c r="L57" s="5" t="n">
         <f aca="false">G57/(G57+E57)*100</f>
         <v>0.222130385370389</v>
       </c>
@@ -1963,10 +1969,10 @@
       <c r="A58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="6" t="n">
         <v>1429.61181989264</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="6" t="n">
         <v>1446.25868701903</v>
       </c>
       <c r="D58" s="0" t="n">
@@ -1981,23 +1987,23 @@
       <c r="G58" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H58" s="6" t="n">
+      <c r="H58" s="5" t="n">
         <f aca="false">(D58+E58)/SUM(D58:G58)*100</f>
         <v>96.3542185476641</v>
       </c>
-      <c r="I58" s="6" t="n">
+      <c r="I58" s="5" t="n">
         <f aca="false">D58/(D58+G58)*100</f>
         <v>39.2857142857143</v>
       </c>
-      <c r="J58" s="6" t="n">
+      <c r="J58" s="5" t="n">
         <f aca="false">D58/(D58+F58)*100</f>
         <v>3.05555555555556</v>
       </c>
-      <c r="K58" s="6" t="n">
+      <c r="K58" s="5" t="n">
         <f aca="false">E58/(E58+G58)*100</f>
         <v>99.8243620208699</v>
       </c>
-      <c r="L58" s="6" t="n">
+      <c r="L58" s="5" t="n">
         <f aca="false">G58/(G58+E58)*100</f>
         <v>0.175637979130075</v>
       </c>
@@ -2006,10 +2012,10 @@
       <c r="A59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B59" s="7" t="n">
+      <c r="B59" s="6" t="n">
         <v>1117.62494382092</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="6" t="n">
         <v>1121.36754003014</v>
       </c>
       <c r="D59" s="0" t="n">
@@ -2024,22 +2030,22 @@
       <c r="G59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="6" t="n">
+      <c r="H59" s="5" t="n">
         <f aca="false">(D59+E59)/SUM(D59:G59)*100</f>
         <v>96.4139854567188</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="6" t="n">
+      <c r="I59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="5" t="n">
         <f aca="false">D59/(D59+F59)*100</f>
         <v>0</v>
       </c>
-      <c r="K59" s="6" t="n">
+      <c r="K59" s="5" t="n">
         <f aca="false">E59/(E59+G59)*100</f>
         <v>100</v>
       </c>
-      <c r="L59" s="6" t="n">
+      <c r="L59" s="5" t="n">
         <f aca="false">G59/(G59+E59)*100</f>
         <v>0</v>
       </c>
@@ -2048,10 +2054,10 @@
       <c r="A60" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B60" s="7" t="n">
+      <c r="B60" s="6" t="n">
         <v>1551.82206750431</v>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="6" t="n">
         <v>1552.72617107917</v>
       </c>
       <c r="D60" s="0" t="n">
@@ -2066,22 +2072,22 @@
       <c r="G60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="6" t="n">
+      <c r="H60" s="5" t="n">
         <f aca="false">(D60+E60)/SUM(D60:G60)*100</f>
         <v>96.4139854567188</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60" s="6" t="n">
+      <c r="I60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="5" t="n">
         <f aca="false">D60/(D60+F60)*100</f>
         <v>0</v>
       </c>
-      <c r="K60" s="6" t="n">
+      <c r="K60" s="5" t="n">
         <f aca="false">E60/(E60+G60)*100</f>
         <v>100</v>
       </c>
-      <c r="L60" s="6" t="n">
+      <c r="L60" s="5" t="n">
         <f aca="false">G60/(G60+E60)*100</f>
         <v>0</v>
       </c>
@@ -2090,10 +2096,10 @@
       <c r="A61" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B61" s="7" t="n">
+      <c r="B61" s="6" t="n">
         <v>1072.73435345034</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="6" t="n">
         <v>1079.77733303849</v>
       </c>
       <c r="D61" s="0" t="n">
@@ -2108,25 +2114,688 @@
       <c r="G61" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H61" s="6" t="n">
+      <c r="H61" s="5" t="n">
         <f aca="false">(D61+E61)/SUM(D61:G61)*100</f>
         <v>96.5185775475645</v>
       </c>
-      <c r="I61" s="6" t="n">
+      <c r="I61" s="5" t="n">
         <f aca="false">D61/(D61+G61)*100</f>
         <v>59.6153846153846</v>
       </c>
-      <c r="J61" s="6" t="n">
+      <c r="J61" s="5" t="n">
         <f aca="false">D61/(D61+F61)*100</f>
         <v>8.6230876216968</v>
       </c>
-      <c r="K61" s="6" t="n">
+      <c r="K61" s="5" t="n">
         <f aca="false">E61/(E61+G61)*100</f>
         <v>99.7830466449713</v>
       </c>
-      <c r="L61" s="6" t="n">
+      <c r="L61" s="5" t="n">
         <f aca="false">G61/(G61+E61)*100</f>
         <v>0.216953355028669</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>977.839624399032</v>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>980.597830926046</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>9708.5</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H64" s="7" t="n">
+        <f aca="false">SUM(D64:E64)/SUM(D64:G64)*100</f>
+        <v>96.9269847594382</v>
+      </c>
+      <c r="I64" s="7" t="n">
+        <f aca="false">D64/SUM(D64,G64)*100</f>
+        <v>61.1111111111111</v>
+      </c>
+      <c r="J64" s="7" t="n">
+        <f aca="false">D64/SUM(D64,F64)*100</f>
+        <v>6.95102685624013</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <f aca="false">E64/SUM(E64,G64)*100</f>
+        <v>99.8560041141682</v>
+      </c>
+      <c r="L64" s="7" t="n">
+        <f aca="false">G64/SUM(G64,E64)*100</f>
+        <v>0.143995885831833</v>
+      </c>
+      <c r="M64" s="7" t="n">
+        <f aca="false">SUM(F64,G64)/SUM(D64:G64)*100</f>
+        <v>3.07301524056181</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>983.039943786472</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>995.307969752195</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>9708.5</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H65" s="7" t="n">
+        <f aca="false">SUM(D65:E65)/SUM(D65:G65)*100</f>
+        <v>96.8971013049108</v>
+      </c>
+      <c r="I65" s="7" t="n">
+        <f aca="false">D65/SUM(D65,G65)*100</f>
+        <v>57.5757575757576</v>
+      </c>
+      <c r="J65" s="7" t="n">
+        <f aca="false">D65/SUM(D65,F65)*100</f>
+        <v>6.00315955766193</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <f aca="false">E65/SUM(E65,G65)*100</f>
+        <v>99.8560041141682</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <f aca="false">G65/SUM(G65,E65)*100</f>
+        <v>0.143995885831833</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <f aca="false">SUM(F65,G65)/SUM(D65:G65)*100</f>
+        <v>3.10289869508915</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>992.414759002331</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>997.991612784727</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>9710.5</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>302</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H66" s="7" t="n">
+        <f aca="false">SUM(D66:E66)/SUM(D66:G66)*100</f>
+        <v>96.8721984261381</v>
+      </c>
+      <c r="I66" s="7" t="n">
+        <f aca="false">D66/SUM(D66,G66)*100</f>
+        <v>54.7169811320755</v>
+      </c>
+      <c r="J66" s="7" t="n">
+        <f aca="false">D66/SUM(D66,F66)*100</f>
+        <v>4.58135860979463</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <f aca="false">E66/SUM(E66,G66)*100</f>
+        <v>99.8765749550013</v>
+      </c>
+      <c r="L66" s="7" t="n">
+        <f aca="false">G66/SUM(G66,E66)*100</f>
+        <v>0.123425044998714</v>
+      </c>
+      <c r="M66" s="7" t="n">
+        <f aca="false">SUM(F66,G66)/SUM(D66:G66)*100</f>
+        <v>3.12780157386194</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>981.551880063377</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>990.633354753791</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>9704.5</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>292</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H67" s="7" t="n">
+        <f aca="false">SUM(D67:E67)/SUM(D67:G67)*100</f>
+        <v>96.9120430321745</v>
+      </c>
+      <c r="I67" s="7" t="n">
+        <f aca="false">D67/SUM(D67,G67)*100</f>
+        <v>57.6470588235294</v>
+      </c>
+      <c r="J67" s="7" t="n">
+        <f aca="false">D67/SUM(D67,F67)*100</f>
+        <v>7.74091627172196</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <f aca="false">E67/SUM(E67,G67)*100</f>
+        <v>99.8148624325019</v>
+      </c>
+      <c r="L67" s="7" t="n">
+        <f aca="false">G67/SUM(G67,E67)*100</f>
+        <v>0.185137567498072</v>
+      </c>
+      <c r="M67" s="7" t="n">
+        <f aca="false">SUM(F67,G67)/SUM(D67:G67)*100</f>
+        <v>3.08795696782548</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>995.566157630239</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>1002.77825270686</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>9711.5</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>302</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H68" s="7" t="n">
+        <f aca="false">SUM(D68:E68)/SUM(D68:G68)*100</f>
+        <v>96.8821595776472</v>
+      </c>
+      <c r="I68" s="7" t="n">
+        <f aca="false">D68/SUM(D68,G68)*100</f>
+        <v>56.8627450980392</v>
+      </c>
+      <c r="J68" s="7" t="n">
+        <f aca="false">D68/SUM(D68,F68)*100</f>
+        <v>4.58135860979463</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <f aca="false">E68/SUM(E68,G68)*100</f>
+        <v>99.8868603754178</v>
+      </c>
+      <c r="L68" s="7" t="n">
+        <f aca="false">G68/SUM(G68,E68)*100</f>
+        <v>0.113139624582155</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <f aca="false">SUM(F68,G68)/SUM(D68:G68)*100</f>
+        <v>3.11784042235282</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>973.908189274399</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>979.194508379244</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>9706.5</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>295</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H69" s="7" t="n">
+        <f aca="false">SUM(D69:E69)/SUM(D69:G69)*100</f>
+        <v>96.9020818806654</v>
+      </c>
+      <c r="I69" s="7" t="n">
+        <f aca="false">D69/SUM(D69,G69)*100</f>
+        <v>57.3333333333333</v>
+      </c>
+      <c r="J69" s="7" t="n">
+        <f aca="false">D69/SUM(D69,F69)*100</f>
+        <v>6.79304897314376</v>
+      </c>
+      <c r="K69" s="7" t="n">
+        <f aca="false">E69/SUM(E69,G69)*100</f>
+        <v>99.8354332733351</v>
+      </c>
+      <c r="L69" s="7" t="n">
+        <f aca="false">G69/SUM(G69,E69)*100</f>
+        <v>0.164566726664952</v>
+      </c>
+      <c r="M69" s="7" t="n">
+        <f aca="false">SUM(F69,G69)/SUM(D69:G69)*100</f>
+        <v>3.09791811933459</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>1300.51450606212</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>1302.26465931047</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>9707.5</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H70" s="7" t="n">
+        <f aca="false">SUM(D70:E70)/SUM(D70:G70)*100</f>
+        <v>96.7875286383106</v>
+      </c>
+      <c r="I70" s="7" t="n">
+        <f aca="false">D70/SUM(D70,G70)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="J70" s="7" t="n">
+        <f aca="false">D70/SUM(D70,F70)*100</f>
+        <v>2.8436018957346</v>
+      </c>
+      <c r="K70" s="7" t="n">
+        <f aca="false">E70/SUM(E70,G70)*100</f>
+        <v>99.8457186937516</v>
+      </c>
+      <c r="L70" s="7" t="n">
+        <f aca="false">G70/SUM(G70,E70)*100</f>
+        <v>0.154281306248393</v>
+      </c>
+      <c r="M70" s="7" t="n">
+        <f aca="false">SUM(F70,G70)/SUM(D70:G70)*100</f>
+        <v>3.21247136168941</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>1016.05551286375</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>1021.26583946095</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7" t="n">
+        <f aca="false">SUM(D71:E71)/SUM(D71:G71)*100</f>
+        <v>96.8472955473653</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="7" t="n">
+        <f aca="false">D71/SUM(D71,F71)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <f aca="false">E71/SUM(E71,G71)*100</f>
+        <v>100</v>
+      </c>
+      <c r="L71" s="7" t="n">
+        <f aca="false">G71/SUM(G71,E71)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="7" t="n">
+        <f aca="false">SUM(F71,G71)/SUM(D71:G71)*100</f>
+        <v>3.15270445263472</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>1405.622503317</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>1408.33704851211</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>9722.5</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7" t="n">
+        <f aca="false">SUM(D72:E72)/SUM(D72:G72)*100</f>
+        <v>96.8472955473653</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="7" t="n">
+        <f aca="false">D72/SUM(D72,F72)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="7" t="n">
+        <f aca="false">E72/SUM(E72,G72)*100</f>
+        <v>100</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <f aca="false">G72/SUM(G72,E72)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <f aca="false">SUM(F72,G72)/SUM(D72:G72)*100</f>
+        <v>3.15270445263472</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>978.545706882056</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>987.025497619305</v>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>9708</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>292</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H73" s="7" t="n">
+        <f aca="false">SUM(D73:E73)/SUM(D73:G73)*100</f>
+        <v>96.9469070624564</v>
+      </c>
+      <c r="I73" s="7" t="n">
+        <f aca="false">D73/SUM(D73,G73)*100</f>
+        <v>62.8205128205128</v>
+      </c>
+      <c r="J73" s="7" t="n">
+        <f aca="false">D73/SUM(D73,F73)*100</f>
+        <v>7.74091627172196</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <f aca="false">E73/SUM(E73,G73)*100</f>
+        <v>99.8508614039599</v>
+      </c>
+      <c r="L73" s="7" t="n">
+        <f aca="false">G73/SUM(G73,E73)*100</f>
+        <v>0.149138596040113</v>
+      </c>
+      <c r="M73" s="7" t="n">
+        <f aca="false">SUM(F73,G73)/SUM(D73:G73)*100</f>
+        <v>3.05309293754358</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>651.7753078939</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>4876</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>4997</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>4876</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="false">SUM(G77:H77)/SUM(G77:J77)</f>
+        <v>0.97589641434263</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>734.391871980827</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>740.811316696948</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>9751.5</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>9987.5</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>9729.5</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <f aca="false">SUM(I80,J80)/SUM(I80:L80)</f>
+        <v>0.972108775774479</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
